--- a/zebrafish_detect_ppt/準確率excel.xlsx
+++ b/zebrafish_detect_ppt/準確率excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD04E39D-DEAF-4119-96A7-1D001FB7A936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD8AD61-D9C7-428F-A30B-53A188006DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>正確辨識到的脊椎數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,22 @@
   </si>
   <si>
     <t>fish(96)</t>
+  </si>
+  <si>
+    <t>脊椎抓不好的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何改善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有完整抓出脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用多階grayseperate將脊椎顯現出來</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -671,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -682,9 +698,11 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="64.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -700,8 +718,14 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -720,7 +744,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -739,7 +763,7 @@
         <v>83.33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -757,8 +781,14 @@
         <f t="shared" si="1"/>
         <v>42.86</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -777,7 +807,7 @@
         <v>83.33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -796,7 +826,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -815,7 +845,7 @@
         <v>90.91</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -834,7 +864,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -853,7 +883,7 @@
         <v>93.33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -872,7 +902,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -891,7 +921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -910,7 +940,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -929,7 +959,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -948,7 +978,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -967,7 +997,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>

--- a/zebrafish_detect_ppt/準確率excel.xlsx
+++ b/zebrafish_detect_ppt/準確率excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD8AD61-D9C7-428F-A30B-53A188006DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82001C70-203C-4346-9E73-FB1ABA0DD0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="172">
   <si>
     <t>正確辨識到的脊椎數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>準確率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>相除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,15 +349,284 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>沒有完整抓出脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>如何改善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沒有完整抓出脊椎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用多階grayseperate將脊椎顯現出來</t>
+  </si>
+  <si>
+    <t>第一個脊椎未加出來</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有1節抓到身體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1,2節沒有抓到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)在graySeparate時，多用不同的graylevel將脊椎的形狀抓出來</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3)將ROI的下方邊界用定值的方式將邊界向上提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解決方法:(1),(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框到疑似雜點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>準確率(完整框住脊椎數量/實際數量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1,2節沒有抓到，框到身體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解決方法:(1),(2),(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框到身體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解決方法:(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1節沒框到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解決方法:(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2)在ROI把脊椎區域左側邊界用定值的方式往左邊推，讓第一節不會不切到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有框到完整脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解決方法:(1)</t>
+  </si>
+  <si>
+    <t>解決方法:(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框到疑似雜點,無法框到完整脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無法完整框住脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框到疑似雜點，後面無法抓出脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框到身體，無法完整框住脊椎，框到疑似雜點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解決方法:(1),(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1節跟後面無法框出脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾段無法框出脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框到疑似雜點，無法框到完整脊椎</t>
+  </si>
+  <si>
+    <t>框到疑似雜點，無法框到完整脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2節無法框出脊椎,無法框出完整脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無法輕易識別脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脊椎區域亮度太相近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後半無法辨識脊椎，中斷無法完整框住脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1節無法框出脊椎，框到身體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解決方法:(2),(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無法框住完整脊椎，第1節無法框出脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1節無法框出脊椎，無法框住完整脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框到疑似雜點，尾段無法框出脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1節無法框出脊椎，兩個脊椎顏色相近被框成同一個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1節無法框出脊椎，框到疑似雜點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1節無法框出脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1節跟尾段無法框出脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1節無法框出脊椎，框到疑似脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1節無法框出脊椎，框到疑似脊椎，無法框完整脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1,2節跟尾段無法框出脊椎，無法完整脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1.2節無法框出脊椎，無法完整框出脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2節無法框出脊椎，框到疑似雜點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無法框住完整脊椎，尾段無法框出脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1,2節跟尾段無法框出脊椎，框到疑似雜點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身體亮度不足，ROI無法抓出脊椎區域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無法挽整框出脊椎，框到疑似雜點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無法框到晚整脊椎，最後一節無法框出脊椎，框到身體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1,2節跟尾段無法框出脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身體跟脊椎顏色相近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無法框出完整脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框到疑似雜點，脊椎顏色相近被框成同一個，第1,2無法框出完整脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1,2跟尾段無法框出完整脊椎，框到疑似雜點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框到身體，尾段無法框出脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框到疑似雜點，無法框出完整脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無法框出晚整脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1,2節跟尾段無法框出脊椎，框到身體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脊椎顏色相近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1,2節無法框出脊椎，框到疑似雜點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1節無法框出脊椎，框到疑似雜點，無法完整框住脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graySeparate出來的結果不理想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將graylevel更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1節無法框出脊椎，無法完整框出脊椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1節無法框出脊椎，框到疑似雜點，框到身體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無法框出完整脊椎，框到身體</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,20 +954,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="64.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="2" max="2" width="19.8984375" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" customWidth="1"/>
+    <col min="5" max="5" width="47.19921875" customWidth="1"/>
+    <col min="6" max="6" width="45.796875" customWidth="1"/>
+    <col min="7" max="7" width="94.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -713,21 +979,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -744,9 +1010,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -763,9 +1029,9 @@
         <v>83.33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -782,15 +1048,15 @@
         <v>42.86</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -806,10 +1072,16 @@
         <f t="shared" si="1"/>
         <v>83.33</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -826,9 +1098,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -844,10 +1116,16 @@
         <f t="shared" si="1"/>
         <v>90.91</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -863,10 +1141,16 @@
         <f t="shared" si="1"/>
         <v>88.24</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -882,10 +1166,16 @@
         <f t="shared" si="1"/>
         <v>93.33</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -901,10 +1191,16 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -921,9 +1217,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -939,10 +1235,16 @@
         <f t="shared" si="1"/>
         <v>66.67</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -958,10 +1260,16 @@
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -977,10 +1285,16 @@
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -996,10 +1310,16 @@
         <f t="shared" si="1"/>
         <v>81.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -1015,10 +1335,16 @@
         <f t="shared" si="1"/>
         <v>53.85</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -1034,10 +1360,16 @@
         <f t="shared" si="1"/>
         <v>53.85</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -1053,10 +1385,16 @@
         <f t="shared" si="1"/>
         <v>53.33</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -1072,10 +1410,16 @@
         <f t="shared" si="1"/>
         <v>72.73</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>14</v>
@@ -1091,10 +1435,16 @@
         <f t="shared" si="1"/>
         <v>77.78</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>14</v>
@@ -1110,10 +1460,13 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -1129,10 +1482,16 @@
         <f t="shared" si="1"/>
         <v>66.67</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -1148,10 +1507,16 @@
         <f t="shared" si="1"/>
         <v>72.22</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>14</v>
@@ -1167,10 +1532,16 @@
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>9</v>
@@ -1186,10 +1557,16 @@
         <f t="shared" si="1"/>
         <v>64.290000000000006</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -1205,10 +1582,16 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1224,10 +1607,16 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -1243,10 +1632,16 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1260,10 +1655,16 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1279,10 +1680,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -1298,10 +1705,16 @@
         <f t="shared" si="1"/>
         <v>20.83</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>11</v>
@@ -1317,10 +1730,16 @@
         <f t="shared" si="1"/>
         <v>73.33</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -1336,10 +1755,16 @@
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -1355,10 +1780,16 @@
         <f t="shared" si="1"/>
         <v>58.82</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>9</v>
@@ -1374,10 +1805,16 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1393,10 +1830,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -1412,10 +1855,16 @@
         <f t="shared" si="1"/>
         <v>31.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -1432,9 +1881,9 @@
         <v>85.71</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1450,10 +1899,16 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -1469,10 +1924,16 @@
         <f t="shared" si="1"/>
         <v>72.73</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -1488,10 +1949,16 @@
         <f t="shared" si="1"/>
         <v>42.86</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1507,10 +1974,16 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -1526,10 +1999,16 @@
         <f t="shared" si="1"/>
         <v>83.33</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>15</v>
@@ -1545,10 +2024,16 @@
         <f t="shared" si="1"/>
         <v>78.95</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -1564,10 +2049,16 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -1583,10 +2074,16 @@
         <f t="shared" si="1"/>
         <v>61.54</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -1602,10 +2099,16 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -1621,10 +2124,16 @@
         <f t="shared" si="1"/>
         <v>58.33</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>11</v>
@@ -1640,10 +2149,16 @@
         <f t="shared" si="1"/>
         <v>78.569999999999993</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -1659,10 +2174,16 @@
         <f>ROUND(D50,2)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>15</v>
@@ -1678,10 +2199,16 @@
         <f t="shared" ref="E51:E97" si="3">ROUND(D51,2)</f>
         <v>71.430000000000007</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>10</v>
@@ -1697,10 +2224,16 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1716,10 +2249,16 @@
         <f t="shared" si="3"/>
         <v>11.11</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -1735,10 +2274,16 @@
         <f t="shared" si="3"/>
         <v>53.85</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -1754,10 +2299,16 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>7</v>
@@ -1773,10 +2324,16 @@
         <f t="shared" si="3"/>
         <v>43.75</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -1792,10 +2349,16 @@
         <f t="shared" si="3"/>
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>156</v>
+      </c>
+      <c r="G57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>9</v>
@@ -1811,10 +2374,16 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -1830,10 +2399,16 @@
         <f t="shared" si="3"/>
         <v>55.56</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -1849,10 +2424,16 @@
         <f t="shared" si="3"/>
         <v>57.14</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>157</v>
+      </c>
+      <c r="G60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -1868,10 +2449,16 @@
         <f t="shared" si="3"/>
         <v>61.54</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>110</v>
+      </c>
+      <c r="G61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62">
         <v>9</v>
@@ -1887,10 +2474,16 @@
         <f t="shared" si="3"/>
         <v>64.290000000000006</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>7</v>
@@ -1906,10 +2499,16 @@
         <f t="shared" si="3"/>
         <v>41.18</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>158</v>
+      </c>
+      <c r="G63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>9</v>
@@ -1925,10 +2524,16 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>159</v>
+      </c>
+      <c r="G64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>11</v>
@@ -1944,10 +2549,16 @@
         <f t="shared" si="3"/>
         <v>78.569999999999993</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>160</v>
+      </c>
+      <c r="G65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>9</v>
@@ -1963,10 +2574,16 @@
         <f t="shared" si="3"/>
         <v>64.290000000000006</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>114</v>
+      </c>
+      <c r="G66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67">
         <v>7</v>
@@ -1982,10 +2599,16 @@
         <f t="shared" si="3"/>
         <v>77.78</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -2001,10 +2624,16 @@
         <f t="shared" si="3"/>
         <v>76.92</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -2020,10 +2649,16 @@
         <f t="shared" si="3"/>
         <v>53.33</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>151</v>
+      </c>
+      <c r="G69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70">
         <v>9</v>
@@ -2039,10 +2674,16 @@
         <f t="shared" si="3"/>
         <v>69.23</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>161</v>
+      </c>
+      <c r="G70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71">
         <v>22</v>
@@ -2058,10 +2699,16 @@
         <f t="shared" si="3"/>
         <v>95.65</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>162</v>
+      </c>
+      <c r="G71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72">
         <v>9</v>
@@ -2077,10 +2724,16 @@
         <f t="shared" si="3"/>
         <v>56.25</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>163</v>
+      </c>
+      <c r="G72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -2096,10 +2749,16 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>164</v>
+      </c>
+      <c r="G73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74">
         <v>7</v>
@@ -2115,10 +2774,16 @@
         <f t="shared" si="3"/>
         <v>53.85</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>110</v>
+      </c>
+      <c r="G74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -2134,10 +2799,16 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>142</v>
+      </c>
+      <c r="G75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76">
         <v>7</v>
@@ -2153,10 +2824,16 @@
         <f t="shared" si="3"/>
         <v>58.33</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>152</v>
+      </c>
+      <c r="G76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77">
         <v>9</v>
@@ -2172,10 +2849,16 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>165</v>
+      </c>
+      <c r="G77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78">
         <v>9</v>
@@ -2191,10 +2874,16 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>166</v>
+      </c>
+      <c r="G78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79">
         <v>11</v>
@@ -2210,10 +2899,16 @@
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80">
         <v>9</v>
@@ -2229,10 +2924,16 @@
         <f t="shared" si="3"/>
         <v>56.25</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81">
         <v>9</v>
@@ -2248,10 +2949,16 @@
         <f t="shared" si="3"/>
         <v>81.819999999999993</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -2267,10 +2974,16 @@
         <f t="shared" si="3"/>
         <v>27.27</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>167</v>
+      </c>
+      <c r="G82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83">
         <v>7</v>
@@ -2286,10 +2999,16 @@
         <f t="shared" si="3"/>
         <v>58.33</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2305,10 +3024,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>152</v>
+      </c>
+      <c r="G84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -2324,10 +3049,16 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2343,10 +3074,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>167</v>
+      </c>
+      <c r="G86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -2362,10 +3099,16 @@
         <f t="shared" si="3"/>
         <v>66.67</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>169</v>
+      </c>
+      <c r="G87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88">
         <v>12</v>
@@ -2381,10 +3124,16 @@
         <f t="shared" si="3"/>
         <v>92.31</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>143</v>
+      </c>
+      <c r="G88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89">
         <v>10</v>
@@ -2400,10 +3149,16 @@
         <f t="shared" si="3"/>
         <v>66.67</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>142</v>
+      </c>
+      <c r="G89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90">
         <v>7</v>
@@ -2419,10 +3174,16 @@
         <f t="shared" si="3"/>
         <v>43.75</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>170</v>
+      </c>
+      <c r="G90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -2438,10 +3199,16 @@
         <f t="shared" si="3"/>
         <v>55.56</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>143</v>
+      </c>
+      <c r="G91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -2457,10 +3224,16 @@
         <f t="shared" si="3"/>
         <v>45.45</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>171</v>
+      </c>
+      <c r="G92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -2476,10 +3249,16 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>143</v>
+      </c>
+      <c r="G93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -2495,10 +3274,16 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>133</v>
+      </c>
+      <c r="G94" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -2514,10 +3299,16 @@
         <f t="shared" si="3"/>
         <v>28.57</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>110</v>
+      </c>
+      <c r="G95" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -2533,10 +3324,16 @@
         <f t="shared" si="3"/>
         <v>55.56</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>161</v>
+      </c>
+      <c r="G96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -2551,6 +3348,12 @@
       <c r="E97">
         <f t="shared" si="3"/>
         <v>40</v>
+      </c>
+      <c r="F97" t="s">
+        <v>164</v>
+      </c>
+      <c r="G97" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
